--- a/xlsx/政治哲学_intext.xlsx
+++ b/xlsx/政治哲学_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="818">
   <si>
     <t>政治哲学</t>
   </si>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -371,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%AC%C2%B7%E9%AD%AF%E4%B8%96%E5%BE%B7</t>
   </si>
   <si>
-    <t>伊本·魯世德</t>
+    <t>伊本·鲁世德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美學家列表</t>
+    <t>美学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E8%AB%96%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>知識論者列表</t>
+    <t>知识论者列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_ethicists</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E5%AD%B8%E5%AD%B8%E8%80%85%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>形而上學學者列表</t>
+    <t>形而上学学者列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_social_and_political_philosophers</t>
@@ -419,13 +419,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%9E%90%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>分析哲學</t>
+    <t>分析哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>亞里斯多德主義</t>
+    <t>亚里斯多德主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Buddhist_philosophy</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歐陸哲學</t>
+    <t>欧陆哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%98%E5%9C%A8%E4%B8%BB%E4%B9%89</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>猶太教哲學</t>
+    <t>犹太教哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E7%94%A8%E4%B8%BB%E4%B9%89</t>
@@ -485,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>東方哲學</t>
+    <t>东方哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%93%B2%E5%AD%A6</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>中世紀哲學</t>
+    <t>中世纪哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>近代哲學</t>
+    <t>近代哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%93%E4%BB%A3%E5%93%B2%E5%AD%A6</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E8%A7%A3%E6%B1%BA%E7%9A%84%E5%93%B2%E5%AD%B8%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>未解決的哲學問題</t>
+    <t>未解决的哲学问题</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_important_publications_in_philosophy</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%AE%B6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學家列表</t>
+    <t>哲学家列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%AD%A6%E9%97%AE%E7%9A%84%E4%BA%BA</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1</t>
@@ -653,19 +653,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC</t>
   </si>
   <si>
-    <t>資本</t>
+    <t>资本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E6%8B%89%E5%BA%95</t>
@@ -677,9 +677,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%83%B3%E5%9B%BD</t>
   </si>
   <si>
@@ -689,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里士多德</t>
+    <t>亚里士多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E5%99%B6%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多噶學派</t>
+    <t>斯多噶学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BD%97</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%9F%BA%E7%B6%AD%E5%88%A9</t>
   </si>
   <si>
-    <t>馬基維利</t>
+    <t>马基维利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81_(%E5%B8%8C%E6%B3%A2)</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B0%E7%BB%8F</t>
@@ -785,7 +782,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%BA%AA</t>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E8%92%99%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>啟蒙時代</t>
+    <t>启蒙时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>英國內戰</t>
+    <t>英国内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%BE%B7%E6%96%AF%E9%B3%A9</t>
   </si>
   <si>
-    <t>孟德斯鳩</t>
+    <t>孟德斯鸠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9-%E9%9B%85%E5%85%8B%C2%B7%E5%8D%A2%E6%A2%AD</t>
@@ -863,9 +860,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
   </si>
   <si>
@@ -875,13 +869,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%A5%AD%E5%85%AC%E6%9C%83</t>
   </si>
   <si>
-    <t>同業公會</t>
+    <t>同业公会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%B2%BF%E6%98%93</t>
   </si>
   <si>
-    <t>自由貿易</t>
+    <t>自由贸易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
@@ -893,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%96%AF%E6%9B%BC%E5%B8%9D%E5%9B%BD</t>
@@ -905,19 +899,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>新大陸</t>
+    <t>新大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E7%89%B9%E5%85%8B%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>阿茲特克文明</t>
+    <t>阿兹特克文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>瑪雅文明</t>
+    <t>玛雅文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0%E6%96%87%E6%98%8E</t>
@@ -935,13 +929,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E5%82%91%E6%98%8E%C2%B7%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97</t>
   </si>
   <si>
-    <t>本傑明·富蘭克林</t>
+    <t>本杰明·富兰克林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%B8%9A%E9%9D%A9%E5%91%BD</t>
@@ -965,49 +959,46 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%80%9D%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>馬克思主義</t>
+    <t>马克思主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會主義</t>
+    <t>社会主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
+    <t>工会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>無政府主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%9C%98%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>工團主義</t>
+    <t>工团主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1917%E5%B9%B4%E4%BF%84%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>1917年俄國革命</t>
+    <t>1917年俄国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%AE%81%E4%B8%BB%E4%B9%89</t>
@@ -1019,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B0%91%E4%B8%BB%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>社會民主主義</t>
+    <t>社会民主主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%89%E6%9D%83</t>
@@ -1031,31 +1022,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A5%BF%E6%96%AF%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>法西斯主義</t>
+    <t>法西斯主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%A4%A7%E6%81%90%E6%85%8C</t>
   </si>
   <si>
-    <t>經濟大恐慌</t>
+    <t>经济大恐慌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%85%B0%E5%85%8B%E6%9E%97%C2%B7%E5%BE%B7%E6%8B%89%E8%AF%BA%C2%B7%E7%BD%97%E6%96%AF%E7%A6%8F</t>
@@ -1103,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%AE%89%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>錫安主義</t>
+    <t>锡安主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E4%B8%BB%E4%B9%89</t>
@@ -1127,13 +1118,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%80%A7%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理性選擇理論</t>
+    <t>理性选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B3%E6%80%A7%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>女性主義</t>
+    <t>女性主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA</t>
@@ -1163,19 +1154,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%9D%E6%83%B3%E5%AF%A6%E9%A9%97</t>
   </si>
   <si>
-    <t>思想實驗</t>
+    <t>思想实验</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E8%AB%BE%E9%BD%8A%E5%85%8B</t>
   </si>
   <si>
-    <t>羅伯特·諾齊克</t>
+    <t>罗伯特·诺齐克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%84%8F%E5%BF%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>自由意志主義</t>
+    <t>自由意志主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%B3%95</t>
@@ -1187,9 +1178,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
   </si>
   <si>
-    <t>蘇格拉底</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E9%9D%9E</t>
   </si>
   <si>
@@ -1205,25 +1193,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>社會契約</t>
+    <t>社会契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%AD%AF%E8%B5%AB%C2%B7%E6%96%AF%E8%B3%93%E8%AB%BE%E8%8E%8E</t>
   </si>
   <si>
-    <t>巴魯赫·斯賓諾莎</t>
+    <t>巴鲁赫·斯宾诺莎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>自然狀態</t>
+    <t>自然状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%8D%AB%C2%B7%E4%BC%91%E8%B0%9F</t>
@@ -1235,9 +1223,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%BD%93%C2%B7%E6%96%AF%E5%AF%86</t>
   </si>
   <si>
@@ -1247,7 +1232,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%BD%98%E6%81%A9</t>
@@ -1265,15 +1250,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B0%E9%87%8C%E7%B1%B3%C2%B7%E8%BE%B9%E6%B2%81</t>
   </si>
   <si>
@@ -1319,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E5%85%8B%E7%A6%8F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>法蘭克福學派</t>
+    <t>法兰克福学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%A0%BC%E8%92%99%E5%BE%B7%C2%B7%E5%BC%97%E6%B4%9B%E4%BC%8A%E5%BE%B7</t>
@@ -1331,7 +1313,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>自由市場</t>
+    <t>自由市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%B2%BB</t>
@@ -1343,7 +1325,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A7%C2%B7%E6%96%BD%E7%89%B9%E5%8B%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>列奧·施特勞斯</t>
+    <t>列奥·施特劳斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%AD%87%E5%B0%94%C2%B7%E7%A6%8F%E6%9F%AF</t>
@@ -1361,25 +1343,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%A5%91%E7%B4%84%E8%AB%96</t>
   </si>
   <si>
-    <t>社會契約論</t>
+    <t>社会契约论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>行動理論</t>
+    <t>行动理论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_culture</t>
@@ -1427,7 +1403,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境哲學</t>
+    <t>环境哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_healthcare</t>
@@ -1445,7 +1421,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>哲學人類學</t>
+    <t>哲学人类学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Theories_of_humor</t>
@@ -1517,13 +1493,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學哲學</t>
+    <t>生物学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理哲學</t>
+    <t>地理哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_sex</t>
@@ -1547,7 +1523,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Philosophy_of_space_and_time</t>
@@ -1589,7 +1565,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E5%8F%B2</t>
   </si>
   <si>
-    <t>哲學史</t>
+    <t>哲学史</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Renaissance_philosophy</t>
@@ -1631,7 +1607,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E6%99%89%E7%8E%84%E5%AD%B8</t>
   </si>
   <si>
-    <t>魏晉玄學</t>
+    <t>魏晋玄学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%AE%B6</t>
@@ -1679,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%AD%E8%BE%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>詭辯學派</t>
+    <t>诡辩学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -1691,25 +1667,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%8D%E9%81%99%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>逍遙學派</t>
+    <t>逍遥学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%84%92%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>犬儒學派</t>
+    <t>犬儒学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>伊比鳩魯學派</t>
+    <t>伊比鸠鲁学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>斯多亞學派</t>
+    <t>斯多亚学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%9F%8F%E6%8B%89%E5%9B%BE%E4%B8%BB%E4%B9%89</t>
@@ -1721,7 +1697,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%87%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>解釋學</t>
+    <t>解释学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%93%B2%E5%AD%A6</t>
@@ -1763,7 +1739,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88%E4%BA%BA%E6%96%87%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>文藝復興人文主義</t>
+    <t>文艺复兴人文主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%E4%B8%BB%E4%B9%89</t>
@@ -1781,7 +1757,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8B%E6%98%8E%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>宋明理學</t>
+    <t>宋明理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E6%9C%B1%E7%90%86%E5%AD%A6</t>
@@ -1799,13 +1775,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8A%9F%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>事功學派</t>
+    <t>事功学派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E5%84%92%E5%AD%B8</t>
   </si>
   <si>
-    <t>韓國儒學</t>
+    <t>韩国儒学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E6%9C%B1%E5%AD%90%E5%AD%A6</t>
@@ -1937,7 +1913,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%9B%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>效益主義</t>
+    <t>效益主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E8%87%AA%E7%94%B1%E4%B8%BB%E4%B9%89</t>
@@ -1949,13 +1925,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>現代主義</t>
+    <t>现代主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E8%B1%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>現象學</t>
+    <t>现象学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%AA%8C%E4%B8%BB%E4%B9%89</t>
@@ -1967,7 +1943,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%9C%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本國學</t>
+    <t>日本国学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%84%92%E5%AE%B6</t>
@@ -1991,7 +1967,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%A9%97%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>實驗哲學</t>
+    <t>实验哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Internalism_and_externalism</t>
@@ -2039,13 +2015,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%B8%B8%E8%AA%9E%E8%A8%80%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日常語言哲學</t>
+    <t>日常语言哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%82%E9%9D%9C%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>寂靜主義</t>
+    <t>寂静主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reformed_epistemology</t>
@@ -2063,7 +2039,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%80%A7%E5%80%AB%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>德性倫理學</t>
+    <t>德性伦理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E5%AD%A6%E6%B4%BE</t>
@@ -2081,13 +2057,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>批判理論</t>
+    <t>批判理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>解構主義</t>
+    <t>解构主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_philosophy</t>
@@ -2105,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>後結構主義</t>
+    <t>后结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E5%BB%BA%E6%9E%84%E4%B8%BB%E4%B9%89</t>
@@ -2117,13 +2093,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>結構主義</t>
+    <t>结构主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E9%83%BD%E5%AD%B8%E6%B4%BE</t>
   </si>
   <si>
-    <t>京都學派</t>
+    <t>京都学派</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Russian_cosmism</t>
@@ -2165,7 +2141,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%AE%9A%E8%AB%96</t>
   </si>
   <si>
-    <t>決定論</t>
+    <t>决定论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Libertarianism_(metaphysics)</t>
@@ -2177,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E8%AB%96</t>
   </si>
   <si>
-    <t>原子論</t>
+    <t>原子论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E5%85%83%E8%AE%BA</t>
@@ -2195,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%80%8C%E4%B8%8A%E8%87%AA%E7%84%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>形而上自然主義</t>
+    <t>形而上自然主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Constructivist_epistemology</t>
@@ -2219,7 +2195,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>信仰主義</t>
+    <t>信仰主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Reasonism</t>
@@ -2237,7 +2213,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E6%88%91%E8%AB%96</t>
   </si>
   <si>
-    <t>唯我論</t>
+    <t>唯我论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E4%B8%BA%E4%B8%BB%E4%B9%89</t>
@@ -2267,13 +2243,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A2%E8%A7%80%E6%80%A7</t>
   </si>
   <si>
-    <t>客觀性</t>
+    <t>客观性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A7%80%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>主觀主義</t>
+    <t>主观主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Norm_(philosophy)</t>
@@ -2303,7 +2279,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E8%99%9B%E7%84%A1%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>道德虛無主義</t>
+    <t>道德虚无主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E5%BE%B7%E6%80%80%E7%96%91%E4%B8%BB%E4%B9%89</t>
@@ -2333,7 +2309,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E5%AF%A6</t>
   </si>
   <si>
-    <t>現實</t>
+    <t>现实</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Anti-realism</t>
@@ -2345,15 +2321,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E5%BF%B5%E8%AB%96</t>
   </si>
   <si>
-    <t>概念論</t>
+    <t>概念论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%BF%83%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>唯心主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E7%89%A9%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
@@ -2363,13 +2336,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%AF%E5%90%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>唯名論</t>
+    <t>唯名论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E5%9C%A8%E8%AB%96</t>
   </si>
   <si>
-    <t>實在論</t>
+    <t>实在论</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ethiopian_philosophy</t>
@@ -2387,7 +2360,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>日本哲學</t>
+    <t>日本哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Korean_philosophy</t>
@@ -2399,7 +2372,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>臺灣哲學</t>
+    <t>台湾哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indonesian_philosophy</t>
@@ -2441,7 +2414,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>德國哲學</t>
+    <t>德国哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Italian_philosophy</t>
@@ -2477,13 +2450,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8%E6%A6%82%E5%BF%B5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>哲學概念列表</t>
+    <t>哲学概念列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2495,7 +2468,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -6114,7 +6087,7 @@
         <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -6140,10 +6113,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6169,10 +6142,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6198,10 +6171,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -6227,10 +6200,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -6256,10 +6229,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6285,10 +6258,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6314,10 +6287,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>4</v>
@@ -6343,10 +6316,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>234</v>
+      </c>
+      <c r="F121" t="s">
         <v>235</v>
-      </c>
-      <c r="F121" t="s">
-        <v>236</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -6372,10 +6345,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>236</v>
+      </c>
+      <c r="F122" t="s">
         <v>237</v>
-      </c>
-      <c r="F122" t="s">
-        <v>238</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6401,10 +6374,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>238</v>
+      </c>
+      <c r="F123" t="s">
         <v>239</v>
-      </c>
-      <c r="F123" t="s">
-        <v>240</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6459,10 +6432,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>240</v>
+      </c>
+      <c r="F125" t="s">
         <v>241</v>
-      </c>
-      <c r="F125" t="s">
-        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>3</v>
@@ -6488,10 +6461,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F126" t="s">
         <v>243</v>
-      </c>
-      <c r="F126" t="s">
-        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6517,10 +6490,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>244</v>
+      </c>
+      <c r="F127" t="s">
         <v>245</v>
-      </c>
-      <c r="F127" t="s">
-        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6546,10 +6519,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>246</v>
+      </c>
+      <c r="F128" t="s">
         <v>247</v>
-      </c>
-      <c r="F128" t="s">
-        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6575,10 +6548,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>248</v>
+      </c>
+      <c r="F129" t="s">
         <v>249</v>
-      </c>
-      <c r="F129" t="s">
-        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -6604,10 +6577,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>250</v>
+      </c>
+      <c r="F130" t="s">
         <v>251</v>
-      </c>
-      <c r="F130" t="s">
-        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6633,10 +6606,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>252</v>
+      </c>
+      <c r="F131" t="s">
         <v>253</v>
-      </c>
-      <c r="F131" t="s">
-        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6662,10 +6635,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>254</v>
+      </c>
+      <c r="F132" t="s">
         <v>255</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>6</v>
@@ -6691,10 +6664,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>256</v>
+      </c>
+      <c r="F133" t="s">
         <v>257</v>
-      </c>
-      <c r="F133" t="s">
-        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -6720,10 +6693,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -6749,10 +6722,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>260</v>
+      </c>
+      <c r="F135" t="s">
         <v>261</v>
-      </c>
-      <c r="F135" t="s">
-        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6778,10 +6751,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>262</v>
+      </c>
+      <c r="F136" t="s">
         <v>263</v>
-      </c>
-      <c r="F136" t="s">
-        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6807,10 +6780,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" t="s">
         <v>265</v>
-      </c>
-      <c r="F137" t="s">
-        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6836,10 +6809,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>266</v>
+      </c>
+      <c r="F138" t="s">
         <v>267</v>
-      </c>
-      <c r="F138" t="s">
-        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>4</v>
@@ -6865,10 +6838,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>268</v>
+      </c>
+      <c r="F139" t="s">
         <v>269</v>
-      </c>
-      <c r="F139" t="s">
-        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6894,10 +6867,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>270</v>
+      </c>
+      <c r="F140" t="s">
         <v>271</v>
-      </c>
-      <c r="F140" t="s">
-        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6923,10 +6896,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>272</v>
+      </c>
+      <c r="F141" t="s">
         <v>273</v>
-      </c>
-      <c r="F141" t="s">
-        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6952,10 +6925,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>274</v>
+      </c>
+      <c r="F142" t="s">
         <v>275</v>
-      </c>
-      <c r="F142" t="s">
-        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6981,10 +6954,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>276</v>
+      </c>
+      <c r="F143" t="s">
         <v>277</v>
-      </c>
-      <c r="F143" t="s">
-        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -7010,10 +6983,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" t="s">
         <v>279</v>
-      </c>
-      <c r="F144" t="s">
-        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -7039,10 +7012,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -7068,10 +7041,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -7097,10 +7070,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7126,10 +7099,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7155,10 +7128,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -7184,10 +7157,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7213,10 +7186,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7242,10 +7215,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7271,10 +7244,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7300,10 +7273,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7329,10 +7302,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7358,10 +7331,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7387,10 +7360,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>8</v>
@@ -7416,10 +7389,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7445,10 +7418,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7474,10 +7447,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7503,10 +7476,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7532,10 +7505,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7561,10 +7534,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7590,10 +7563,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7619,10 +7592,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>16</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7648,10 +7621,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7677,10 +7650,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7706,10 +7679,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7735,10 +7708,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7764,10 +7737,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7793,10 +7766,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7822,10 +7795,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7851,10 +7824,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7880,10 +7853,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7909,10 +7882,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7938,10 +7911,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7967,10 +7940,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7996,10 +7969,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8025,10 +7998,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8054,10 +8027,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -8083,10 +8056,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8112,10 +8085,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>
@@ -8141,10 +8114,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -8170,10 +8143,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8199,10 +8172,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8228,10 +8201,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8257,10 +8230,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8286,10 +8259,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G188" t="n">
         <v>4</v>
@@ -8315,10 +8288,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8344,10 +8317,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8373,10 +8346,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8402,10 +8375,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8431,10 +8404,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8460,10 +8433,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8489,10 +8462,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8518,10 +8491,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8547,10 +8520,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8576,10 +8549,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8605,10 +8578,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>218</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8634,10 +8607,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8663,10 +8636,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8692,10 +8665,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G202" t="n">
         <v>5</v>
@@ -8721,10 +8694,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8750,10 +8723,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8779,10 +8752,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8808,10 +8781,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8866,10 +8839,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F208" t="s">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8924,10 +8897,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8953,10 +8926,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8982,10 +8955,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -9011,10 +8984,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -9040,10 +9013,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -9069,10 +9042,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>271</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -9098,10 +9071,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9127,10 +9100,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9156,10 +9129,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9185,10 +9158,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9214,10 +9187,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9243,10 +9216,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9272,10 +9245,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9301,10 +9274,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9330,10 +9303,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9359,10 +9332,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9388,10 +9361,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9417,10 +9390,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9446,10 +9419,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9475,10 +9448,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9504,10 +9477,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9533,10 +9506,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>106</v>
       </c>
       <c r="G231" t="n">
         <v>43</v>
@@ -9562,10 +9535,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>176</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9620,10 +9593,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9678,10 +9651,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9707,10 +9680,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9736,10 +9709,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9765,10 +9738,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9794,10 +9767,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
         <v>5</v>
@@ -9823,10 +9796,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9852,10 +9825,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9881,10 +9854,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9910,10 +9883,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9939,10 +9912,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9968,10 +9941,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9997,10 +9970,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -10026,10 +9999,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -10055,10 +10028,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -10084,10 +10057,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -10113,10 +10086,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10142,10 +10115,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -10171,10 +10144,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10200,10 +10173,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10229,10 +10202,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10258,10 +10231,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10287,10 +10260,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10316,10 +10289,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10345,10 +10318,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10374,10 +10347,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10403,10 +10376,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10432,10 +10405,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10461,10 +10434,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10519,10 +10492,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10548,10 +10521,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10577,10 +10550,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10606,10 +10579,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10635,10 +10608,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10664,10 +10637,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10693,10 +10666,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10722,10 +10695,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10751,10 +10724,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10780,10 +10753,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
+        <v>266</v>
+      </c>
+      <c r="F274" t="s">
         <v>267</v>
-      </c>
-      <c r="F274" t="s">
-        <v>268</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10809,10 +10782,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>3</v>
@@ -10867,10 +10840,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10896,10 +10869,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10925,10 +10898,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G279" t="n">
         <v>2</v>
@@ -10954,10 +10927,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="F280" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10983,10 +10956,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="F281" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11012,10 +10985,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F282" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11041,10 +11014,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F283" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11070,10 +11043,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F284" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11099,10 +11072,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="F285" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11128,10 +11101,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F286" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11157,10 +11130,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F287" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11186,10 +11159,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F288" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11215,10 +11188,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F289" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="G289" t="n">
         <v>2</v>
@@ -11273,10 +11246,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="F291" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11302,10 +11275,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F292" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11331,10 +11304,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="F293" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11360,10 +11333,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="F294" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11389,10 +11362,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F295" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11418,10 +11391,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F296" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11447,10 +11420,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="G297" t="n">
         <v>10</v>
@@ -11505,10 +11478,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11592,10 +11565,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F302" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G302" t="n">
         <v>2</v>
@@ -11621,10 +11594,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F303" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11650,10 +11623,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F304" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11679,10 +11652,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F305" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11737,10 +11710,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F307" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11766,10 +11739,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F308" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G308" t="n">
         <v>2</v>
@@ -11795,10 +11768,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F309" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11824,10 +11797,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11853,10 +11826,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11882,10 +11855,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11911,10 +11884,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11940,10 +11913,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11969,10 +11942,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11998,10 +11971,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -12027,10 +12000,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -12056,10 +12029,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -12085,10 +12058,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12114,10 +12087,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12143,10 +12116,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12172,10 +12145,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12201,10 +12174,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -12259,10 +12232,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F325" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12288,10 +12261,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F326" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12317,10 +12290,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F327" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12346,10 +12319,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F328" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G328" t="n">
         <v>2</v>
@@ -12375,10 +12348,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F329" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12404,10 +12377,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F330" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12433,10 +12406,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F331" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12462,10 +12435,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F332" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12491,10 +12464,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F333" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G333" t="n">
         <v>2</v>
@@ -12520,10 +12493,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F334" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12549,10 +12522,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F335" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12578,10 +12551,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F336" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G336" t="n">
         <v>2</v>
@@ -12607,10 +12580,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F337" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12636,10 +12609,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F338" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12665,10 +12638,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F339" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12694,10 +12667,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F340" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12723,10 +12696,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F341" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12752,10 +12725,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F342" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12781,10 +12754,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F343" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12810,10 +12783,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F344" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12839,10 +12812,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F345" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12868,10 +12841,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F346" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12897,10 +12870,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F347" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12926,10 +12899,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F348" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12955,10 +12928,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F349" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12984,10 +12957,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F350" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13013,10 +12986,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F351" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13042,10 +13015,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F352" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13071,10 +13044,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F353" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13100,10 +13073,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F354" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13129,10 +13102,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F355" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13158,10 +13131,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F356" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13187,10 +13160,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13216,10 +13189,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13245,10 +13218,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13274,10 +13247,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F360" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13303,10 +13276,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="F361" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13361,10 +13334,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F363" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13390,10 +13363,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="F364" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13419,10 +13392,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="F365" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13448,10 +13421,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="F366" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13477,10 +13450,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F367" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13506,10 +13479,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F368" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13535,10 +13508,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="F369" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13564,10 +13537,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="F370" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13593,10 +13566,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F371" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13622,10 +13595,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="F372" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13651,10 +13624,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="F373" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13680,10 +13653,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="F374" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13709,10 +13682,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="F375" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13738,10 +13711,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F376" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13767,10 +13740,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F377" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G377" t="n">
         <v>3</v>
@@ -13796,10 +13769,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="F378" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13825,10 +13798,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="F379" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13854,10 +13827,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="F380" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13883,10 +13856,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="F381" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G381" t="n">
         <v>3</v>
@@ -13912,10 +13885,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="F382" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13941,10 +13914,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="F383" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G383" t="n">
         <v>3</v>
@@ -13970,10 +13943,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="F384" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13999,10 +13972,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="F385" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14028,10 +14001,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
       <c r="F386" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14057,10 +14030,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="F387" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14086,10 +14059,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
       <c r="F388" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="G388" t="n">
         <v>2</v>
@@ -14115,10 +14088,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="F389" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14144,10 +14117,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
       <c r="F390" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14173,10 +14146,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="F391" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14202,10 +14175,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F392" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14231,10 +14204,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F393" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14260,10 +14233,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="F394" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14289,10 +14262,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="F395" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14318,10 +14291,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="F396" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14347,10 +14320,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F397" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14376,10 +14349,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="F398" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14405,10 +14378,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="F399" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14434,10 +14407,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="F400" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14463,10 +14436,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="F401" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14492,10 +14465,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="F402" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14521,10 +14494,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="F403" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14550,10 +14523,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F404" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14579,10 +14552,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F405" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14608,10 +14581,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="F406" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14637,10 +14610,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="F407" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14666,10 +14639,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="F408" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14695,10 +14668,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="F409" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14724,10 +14697,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="F410" t="s">
-        <v>778</v>
+        <v>624</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14753,10 +14726,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="F411" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="G411" t="n">
         <v>2</v>
@@ -14782,10 +14755,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="F412" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14811,10 +14784,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F413" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14840,10 +14813,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="F414" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14869,10 +14842,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="F415" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14898,10 +14871,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="F416" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="G416" t="n">
         <v>3</v>
@@ -14927,10 +14900,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="F417" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14956,10 +14929,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F418" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14985,10 +14958,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="F419" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15014,10 +14987,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="F420" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15043,10 +15016,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="F421" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15072,10 +15045,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="F422" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15101,10 +15074,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="F423" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15130,10 +15103,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="F424" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15159,10 +15132,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F425" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15188,10 +15161,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F426" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G426" t="n">
         <v>2</v>
@@ -15217,10 +15190,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="F427" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15246,10 +15219,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="F428" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15275,10 +15248,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="F429" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15304,10 +15277,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F430" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15333,10 +15306,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="F431" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15391,10 +15364,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="F433" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15449,10 +15422,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="F435" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="G435" t="n">
         <v>3</v>
@@ -15478,10 +15451,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="F436" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15507,10 +15480,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="F437" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
